--- a/sofaplayer/Ligue_1/AS Monaco_stats.xlsx
+++ b/sofaplayer/Ligue_1/AS Monaco_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>962883</v>
       </c>
       <c r="E2" t="n">
-        <v>6.8307692307692</v>
+        <v>6.8214285714286</v>
       </c>
       <c r="F2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" t="n">
         <v>5</v>
       </c>
       <c r="H2" t="n">
-        <v>522</v>
+        <v>550</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -1053,22 +1053,22 @@
         <v>7</v>
       </c>
       <c r="K2" t="n">
-        <v>7.549</v>
+        <v>7.7579</v>
       </c>
       <c r="L2" t="n">
-        <v>74.571428571429</v>
+        <v>78.571428571429</v>
       </c>
       <c r="M2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="P2" t="n">
-        <v>31.818181818182</v>
+        <v>30.434782608696</v>
       </c>
       <c r="Q2" t="n">
         <v>3</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.6381632699999999</v>
+        <v>0.63868319</v>
       </c>
       <c r="AB2" t="n">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="AC2" t="n">
         <v>1</v>
@@ -1113,22 +1113,22 @@
         <v>8</v>
       </c>
       <c r="AE2" t="n">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="AF2" t="n">
-        <v>81.865284974093</v>
+        <v>82.08955223880599</v>
       </c>
       <c r="AG2" t="n">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="AH2" t="n">
+        <v>62</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>103</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>57</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>56</v>
       </c>
       <c r="AK2" t="n">
         <v>10</v>
@@ -1143,7 +1143,7 @@
         <v>100</v>
       </c>
       <c r="AO2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP2" t="n">
         <v>8</v>
@@ -1152,7 +1152,7 @@
         <v>3</v>
       </c>
       <c r="AR2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AS2" t="n">
         <v>6</v>
@@ -1173,31 +1173,31 @@
         <v>0</v>
       </c>
       <c r="AY2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ2" t="n">
-        <v>35.294117647059</v>
+        <v>38.888888888889</v>
       </c>
       <c r="BA2" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BB2" t="n">
-        <v>43.103448275862</v>
+        <v>44.262295081967</v>
       </c>
       <c r="BC2" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD2" t="n">
-        <v>41.860465116279</v>
+        <v>43.181818181818</v>
       </c>
       <c r="BE2" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BF2" t="n">
-        <v>46.666666666667</v>
+        <v>47.058823529412</v>
       </c>
       <c r="BG2" t="n">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="BH2" t="n">
         <v>6</v>
@@ -1206,7 +1206,7 @@
         <v>4</v>
       </c>
       <c r="BJ2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BK2" t="n">
         <v>1</v>
@@ -1227,16 +1227,16 @@
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>88.8</v>
+        <v>95.5</v>
       </c>
       <c r="BR2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BS2" t="n">
         <v>7</v>
       </c>
       <c r="BT2" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="BU2" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>20</v>
       </c>
       <c r="CA2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CB2" t="n">
         <v>3</v>
       </c>
       <c r="CC2" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CD2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1311,16 +1311,16 @@
         <v>8</v>
       </c>
       <c r="CS2" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="CT2" t="n">
         <v>2</v>
       </c>
       <c r="CU2" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="CV2" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="DG2" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>1083007</v>
       </c>
       <c r="E3" t="n">
-        <v>6.5</v>
+        <v>6.505</v>
       </c>
       <c r="F3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" t="n">
         <v>12</v>
       </c>
       <c r="H3" t="n">
-        <v>947</v>
+        <v>961</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -1412,7 +1412,7 @@
         <v>3.3054</v>
       </c>
       <c r="L3" t="n">
-        <v>473.5</v>
+        <v>480.5</v>
       </c>
       <c r="M3" t="n">
         <v>19</v>
@@ -1457,34 +1457,34 @@
         <v>2</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.11374792</v>
+        <v>1.11507782</v>
       </c>
       <c r="AB3" t="n">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="AC3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AE3" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AF3" t="n">
-        <v>60.493827160494</v>
+        <v>59.763313609467</v>
       </c>
       <c r="AG3" t="n">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="AH3" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AI3" t="n">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AJ3" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AK3" t="n">
         <v>1</v>
@@ -1502,13 +1502,13 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AQ3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS3" t="n">
         <v>7</v>
@@ -1535,25 +1535,25 @@
         <v>30</v>
       </c>
       <c r="BA3" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="BB3" t="n">
-        <v>30.701754385965</v>
+        <v>31.35593220339</v>
       </c>
       <c r="BC3" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="BD3" t="n">
-        <v>36.764705882353</v>
+        <v>38.028169014085</v>
       </c>
       <c r="BE3" t="n">
         <v>10</v>
       </c>
       <c r="BF3" t="n">
-        <v>21.739130434783</v>
+        <v>21.276595744681</v>
       </c>
       <c r="BG3" t="n">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="BH3" t="n">
         <v>14</v>
@@ -1583,16 +1583,16 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>123.5</v>
+        <v>130.1</v>
       </c>
       <c r="BR3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS3" t="n">
         <v>4</v>
       </c>
       <c r="BT3" t="n">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
@@ -1616,7 +1616,7 @@
         <v>3</v>
       </c>
       <c r="CB3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CC3" t="n">
         <v>12</v>
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="CR3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="CS3" t="n">
         <v>10</v>
@@ -1673,10 +1673,10 @@
         <v>7</v>
       </c>
       <c r="CU3" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="CV3" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
@@ -1691,10 +1691,10 @@
         <v>2</v>
       </c>
       <c r="DA3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DB3" t="n">
-        <v>66.666666666667</v>
+        <v>63.636363636364</v>
       </c>
       <c r="DC3" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="DG3" t="n">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>934237</v>
       </c>
       <c r="E4" t="n">
-        <v>6.5882352941176</v>
+        <v>6.5777777777778</v>
       </c>
       <c r="F4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H4" t="n">
-        <v>1173</v>
+        <v>1249</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -1765,22 +1765,22 @@
         <v>4</v>
       </c>
       <c r="K4" t="n">
-        <v>5.8293</v>
+        <v>6.0724</v>
       </c>
       <c r="L4" t="n">
-        <v>293.25</v>
+        <v>312.25</v>
       </c>
       <c r="M4" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="N4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O4" t="n">
         <v>4</v>
       </c>
       <c r="P4" t="n">
-        <v>10.526315789474</v>
+        <v>9.523809523809501</v>
       </c>
       <c r="Q4" t="n">
         <v>1</v>
@@ -1813,10 +1813,10 @@
         <v>3</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.9954908099999999</v>
+        <v>1.00145601</v>
       </c>
       <c r="AB4" t="n">
-        <v>405</v>
+        <v>430</v>
       </c>
       <c r="AC4" t="n">
         <v>6</v>
@@ -1825,28 +1825,28 @@
         <v>13</v>
       </c>
       <c r="AE4" t="n">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="AF4" t="n">
-        <v>72.92576419213999</v>
+        <v>72.199170124481</v>
       </c>
       <c r="AG4" t="n">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="AH4" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AI4" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AJ4" t="n">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AK4" t="n">
         <v>3</v>
       </c>
       <c r="AL4" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="AM4" t="n">
         <v>0</v>
@@ -1858,13 +1858,13 @@
         <v>3</v>
       </c>
       <c r="AP4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ4" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AR4" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="AS4" t="n">
         <v>4</v>
@@ -1873,10 +1873,10 @@
         <v>4</v>
       </c>
       <c r="AU4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AW4" t="n">
         <v>0</v>
@@ -1891,31 +1891,31 @@
         <v>50</v>
       </c>
       <c r="BA4" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="BB4" t="n">
-        <v>38.4</v>
+        <v>39.55223880597</v>
       </c>
       <c r="BC4" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="BD4" t="n">
-        <v>38.888888888889</v>
+        <v>40.625</v>
       </c>
       <c r="BE4" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BF4" t="n">
-        <v>37.142857142857</v>
+        <v>36.842105263158</v>
       </c>
       <c r="BG4" t="n">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="BH4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="BI4" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="BJ4" t="n">
         <v>10</v>
@@ -1933,28 +1933,28 @@
         <v>2</v>
       </c>
       <c r="BO4" t="n">
+        <v>19</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ4" t="n">
+        <v>118.4</v>
+      </c>
+      <c r="BR4" t="n">
         <v>18</v>
-      </c>
-      <c r="BP4" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ4" t="n">
-        <v>112</v>
-      </c>
-      <c r="BR4" t="n">
-        <v>17</v>
       </c>
       <c r="BS4" t="n">
         <v>7</v>
       </c>
       <c r="BT4" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="BU4" t="n">
         <v>1</v>
       </c>
       <c r="BV4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BW4" t="n">
         <v>1</v>
@@ -1966,7 +1966,7 @@
         <v>0</v>
       </c>
       <c r="BZ4" t="n">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="CA4" t="n">
         <v>3</v>
@@ -1975,7 +1975,7 @@
         <v>20</v>
       </c>
       <c r="CC4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CD4" t="n">
         <v>4</v>
@@ -1996,7 +1996,7 @@
         <v>0</v>
       </c>
       <c r="CJ4" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="CK4" t="n">
         <v>2</v>
@@ -2029,10 +2029,10 @@
         <v>8</v>
       </c>
       <c r="CU4" t="n">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="CV4" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="CW4" t="n">
         <v>0</v>
@@ -2044,10 +2044,10 @@
         <v>0</v>
       </c>
       <c r="CZ4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DA4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DB4" t="n">
         <v>100</v>
@@ -2062,10 +2062,10 @@
         <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="DG4" t="n">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2813,40 +2813,40 @@
         <v>1110842</v>
       </c>
       <c r="E7" t="n">
-        <v>6.4</v>
+        <v>7.6</v>
       </c>
       <c r="F7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
-        <v>75</v>
+        <v>165</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0408</v>
+        <v>0.8668</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>82.5</v>
       </c>
       <c r="M7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -2858,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -2867,10 +2867,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -2879,10 +2879,10 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.0228037</v>
+        <v>0.0543989</v>
       </c>
       <c r="AB7" t="n">
-        <v>43</v>
+        <v>91</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -2891,55 +2891,55 @@
         <v>1</v>
       </c>
       <c r="AE7" t="n">
+        <v>33</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>78.571428571429</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>42</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>12</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>13</v>
       </c>
-      <c r="AF7" t="n">
-        <v>65</v>
-      </c>
-      <c r="AG7" t="n">
-        <v>20</v>
-      </c>
-      <c r="AH7" t="n">
+      <c r="AK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR7" t="n">
         <v>5</v>
       </c>
-      <c r="AI7" t="n">
-        <v>8</v>
-      </c>
-      <c r="AJ7" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP7" t="n">
-        <v>2</v>
-      </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
-        <v>1</v>
-      </c>
       <c r="AS7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT7" t="n">
         <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AV7" t="n">
         <v>0</v>
@@ -2951,100 +2951,100 @@
         <v>0</v>
       </c>
       <c r="AY7" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>36.842105263158</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>40</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>39.285714285714</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>50</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>30</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>1</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ7" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="BR7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BS7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BT7" t="n">
+        <v>9</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV7" t="n">
+        <v>2</v>
+      </c>
+      <c r="BW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY7" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ7" t="n">
         <v>3</v>
       </c>
-      <c r="AZ7" t="n">
-        <v>42.857142857143</v>
-      </c>
-      <c r="BA7" t="n">
-        <v>5</v>
-      </c>
-      <c r="BB7" t="n">
-        <v>41.666666666667</v>
-      </c>
-      <c r="BC7" t="n">
-        <v>5</v>
-      </c>
-      <c r="BD7" t="n">
-        <v>45.454545454545</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>16</v>
-      </c>
-      <c r="BH7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BK7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ7" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="BR7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BS7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT7" t="n">
-        <v>7</v>
-      </c>
-      <c r="BU7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV7" t="n">
-        <v>1</v>
-      </c>
-      <c r="BW7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY7" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ7" t="n">
-        <v>0</v>
-      </c>
       <c r="CA7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CB7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="CC7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="CD7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CE7" t="n">
         <v>0</v>
@@ -3062,7 +3062,7 @@
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="CK7" t="n">
         <v>0</v>
@@ -3089,13 +3089,13 @@
         <v>1</v>
       </c>
       <c r="CS7" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="CT7" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CU7" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="CV7" t="n">
         <v>1</v>
@@ -3110,7 +3110,7 @@
         <v>0</v>
       </c>
       <c r="CZ7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DA7" t="n">
         <v>2</v>
@@ -3128,10 +3128,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="DG7" t="n">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3169,16 +3169,16 @@
         <v>1389846</v>
       </c>
       <c r="E8" t="n">
-        <v>7.0833333333333</v>
+        <v>7.0615384615385</v>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H8" t="n">
-        <v>876</v>
+        <v>938</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3235,64 +3235,64 @@
         <v>3</v>
       </c>
       <c r="AA8" t="n">
-        <v>2.3177121</v>
+        <v>2.5525271</v>
       </c>
       <c r="AB8" t="n">
-        <v>763</v>
+        <v>823</v>
       </c>
       <c r="AC8" t="n">
         <v>6</v>
       </c>
       <c r="AD8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE8" t="n">
-        <v>451</v>
+        <v>486</v>
       </c>
       <c r="AF8" t="n">
-        <v>83.518518518519</v>
+        <v>83.793103448276</v>
       </c>
       <c r="AG8" t="n">
-        <v>540</v>
+        <v>580</v>
       </c>
       <c r="AH8" t="n">
-        <v>197</v>
+        <v>213</v>
       </c>
       <c r="AI8" t="n">
-        <v>254</v>
+        <v>273</v>
       </c>
       <c r="AJ8" t="n">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="AK8" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AL8" t="n">
-        <v>58.536585365854</v>
+        <v>61.224489795918</v>
       </c>
       <c r="AM8" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AN8" t="n">
-        <v>23.809523809524</v>
+        <v>24.489795918367</v>
       </c>
       <c r="AO8" t="n">
         <v>24</v>
       </c>
       <c r="AP8" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="AQ8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AR8" t="n">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="AS8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AT8" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AU8" t="n">
         <v>3</v>
@@ -3310,40 +3310,40 @@
         <v>12</v>
       </c>
       <c r="AZ8" t="n">
-        <v>60</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BA8" t="n">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="BB8" t="n">
-        <v>61.467889908257</v>
+        <v>59.504132231405</v>
       </c>
       <c r="BC8" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="BD8" t="n">
-        <v>65.555555555556</v>
+        <v>63.366336633663</v>
       </c>
       <c r="BE8" t="n">
         <v>8</v>
       </c>
       <c r="BF8" t="n">
-        <v>42.105263157895</v>
+        <v>40</v>
       </c>
       <c r="BG8" t="n">
-        <v>162</v>
+        <v>175</v>
       </c>
       <c r="BH8" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BI8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
       </c>
       <c r="BK8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BL8" t="n">
         <v>0</v>
@@ -3355,22 +3355,22 @@
         <v>4</v>
       </c>
       <c r="BO8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BP8" t="n">
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>85</v>
+        <v>91.8</v>
       </c>
       <c r="BR8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS8" t="n">
         <v>3</v>
       </c>
       <c r="BT8" t="n">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3394,13 +3394,13 @@
         <v>8</v>
       </c>
       <c r="CB8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CC8" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="CD8" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="CE8" t="n">
         <v>0</v>
@@ -3418,7 +3418,7 @@
         <v>0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CK8" t="n">
         <v>0</v>
@@ -3442,19 +3442,19 @@
         <v>0</v>
       </c>
       <c r="CR8" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="CS8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CT8" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="CU8" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="CV8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CW8" t="n">
         <v>0</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="DA8" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="DB8" t="n">
-        <v>65</v>
+        <v>70.833333333333</v>
       </c>
       <c r="DC8" t="n">
         <v>0</v>
@@ -3484,10 +3484,10 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>224</v>
+        <v>241</v>
       </c>
       <c r="DG8" t="n">
-        <v>316</v>
+        <v>339</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
@@ -3525,16 +3525,16 @@
         <v>873534</v>
       </c>
       <c r="E9" t="n">
-        <v>6.9916666666667</v>
+        <v>6.9769230769231</v>
       </c>
       <c r="F9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="n">
         <v>8</v>
       </c>
       <c r="H9" t="n">
-        <v>807</v>
+        <v>821</v>
       </c>
       <c r="I9" t="n">
         <v>1</v>
@@ -3591,10 +3591,10 @@
         <v>1</v>
       </c>
       <c r="AA9" t="n">
-        <v>1.86872584</v>
+        <v>1.86963782</v>
       </c>
       <c r="AB9" t="n">
-        <v>578</v>
+        <v>591</v>
       </c>
       <c r="AC9" t="n">
         <v>3</v>
@@ -3603,19 +3603,19 @@
         <v>11</v>
       </c>
       <c r="AE9" t="n">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF9" t="n">
-        <v>78.062678062678</v>
+        <v>77.683615819209</v>
       </c>
       <c r="AG9" t="n">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="AH9" t="n">
         <v>103</v>
       </c>
       <c r="AI9" t="n">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AJ9" t="n">
         <v>73</v>
@@ -3624,7 +3624,7 @@
         <v>12</v>
       </c>
       <c r="AL9" t="n">
-        <v>41.379310344828</v>
+        <v>40</v>
       </c>
       <c r="AM9" t="n">
         <v>7</v>
@@ -3633,7 +3633,7 @@
         <v>23.333333333333</v>
       </c>
       <c r="AO9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AP9" t="n">
         <v>28</v>
@@ -3648,7 +3648,7 @@
         <v>10</v>
       </c>
       <c r="AT9" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AU9" t="n">
         <v>2</v>
@@ -3669,34 +3669,34 @@
         <v>62.5</v>
       </c>
       <c r="BA9" t="n">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="BB9" t="n">
+        <v>65.934065934066</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>40</v>
+      </c>
+      <c r="BD9" t="n">
         <v>66.666666666667</v>
       </c>
-      <c r="BC9" t="n">
-        <v>39</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>67.241379310345</v>
-      </c>
       <c r="BE9" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BF9" t="n">
-        <v>65.51724137930999</v>
+        <v>64.51612903225799</v>
       </c>
       <c r="BG9" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="BH9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BI9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BK9" t="n">
         <v>1</v>
@@ -3717,16 +3717,16 @@
         <v>0</v>
       </c>
       <c r="BQ9" t="n">
-        <v>83.90000000000001</v>
+        <v>90.7</v>
       </c>
       <c r="BR9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS9" t="n">
         <v>1</v>
       </c>
       <c r="BT9" t="n">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="BU9" t="n">
         <v>0</v>
@@ -3807,10 +3807,10 @@
         <v>30</v>
       </c>
       <c r="CU9" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CV9" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CW9" t="n">
         <v>0</v>
@@ -3822,7 +3822,7 @@
         <v>0</v>
       </c>
       <c r="CZ9" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="DA9" t="n">
         <v>16</v>
@@ -3843,13 +3843,13 @@
         <v>120</v>
       </c>
       <c r="DG9" t="n">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="DH9" t="n">
         <v>0</v>
       </c>
       <c r="DI9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DJ9" t="n">
         <v>2294845</v>
@@ -4237,16 +4237,16 @@
         <v>318963</v>
       </c>
       <c r="E11" t="n">
-        <v>6.7</v>
+        <v>6.675</v>
       </c>
       <c r="F11" t="n">
+        <v>16</v>
+      </c>
+      <c r="G11" t="n">
         <v>15</v>
       </c>
-      <c r="G11" t="n">
-        <v>14</v>
-      </c>
       <c r="H11" t="n">
-        <v>1068</v>
+        <v>1133</v>
       </c>
       <c r="I11" t="n">
         <v>1</v>
@@ -4258,7 +4258,7 @@
         <v>2.1478</v>
       </c>
       <c r="L11" t="n">
-        <v>534</v>
+        <v>566.5</v>
       </c>
       <c r="M11" t="n">
         <v>21</v>
@@ -4300,37 +4300,37 @@
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AA11" t="n">
-        <v>1.1896761</v>
+        <v>1.3280611</v>
       </c>
       <c r="AB11" t="n">
-        <v>658</v>
+        <v>709</v>
       </c>
       <c r="AC11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD11" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AE11" t="n">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="AF11" t="n">
-        <v>81.179138321995</v>
+        <v>80.79331941544901</v>
       </c>
       <c r="AG11" t="n">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="AH11" t="n">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="AI11" t="n">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="AJ11" t="n">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="AK11" t="n">
         <v>14</v>
@@ -4342,25 +4342,25 @@
         <v>5</v>
       </c>
       <c r="AN11" t="n">
-        <v>18.518518518519</v>
+        <v>17.857142857143</v>
       </c>
       <c r="AO11" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AP11" t="n">
         <v>19</v>
       </c>
       <c r="AQ11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR11" t="n">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="AS11" t="n">
         <v>14</v>
       </c>
       <c r="AT11" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AU11" t="n">
         <v>6</v>
@@ -4375,34 +4375,34 @@
         <v>0</v>
       </c>
       <c r="AY11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ11" t="n">
-        <v>60</v>
+        <v>59.090909090909</v>
       </c>
       <c r="BA11" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="BB11" t="n">
-        <v>42.307692307692</v>
+        <v>41.284403669725</v>
       </c>
       <c r="BC11" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="BD11" t="n">
-        <v>44.086021505376</v>
+        <v>43.75</v>
       </c>
       <c r="BE11" t="n">
         <v>3</v>
       </c>
       <c r="BF11" t="n">
-        <v>27.272727272727</v>
+        <v>23.076923076923</v>
       </c>
       <c r="BG11" t="n">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="BH11" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BI11" t="n">
         <v>10</v>
@@ -4414,7 +4414,7 @@
         <v>1</v>
       </c>
       <c r="BL11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM11" t="n">
         <v>0</v>
@@ -4423,22 +4423,22 @@
         <v>1</v>
       </c>
       <c r="BO11" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BP11" t="n">
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>100.5</v>
+        <v>106.8</v>
       </c>
       <c r="BR11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BT11" t="n">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="BU11" t="n">
         <v>0</v>
@@ -4465,64 +4465,64 @@
         <v>11</v>
       </c>
       <c r="CC11" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="CD11" t="n">
+        <v>19</v>
+      </c>
+      <c r="CE11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ11" t="n">
+        <v>14</v>
+      </c>
+      <c r="CK11" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR11" t="n">
         <v>18</v>
       </c>
-      <c r="CE11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ11" t="n">
-        <v>13</v>
-      </c>
-      <c r="CK11" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR11" t="n">
-        <v>15</v>
-      </c>
       <c r="CS11" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CT11" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="CU11" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="CV11" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CW11" t="n">
         <v>0</v>
@@ -4543,7 +4543,7 @@
         <v>63.157894736842</v>
       </c>
       <c r="DC11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="DD11" t="n">
         <v>0</v>
@@ -4552,10 +4552,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="DG11" t="n">
-        <v>309</v>
+        <v>336</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4593,16 +4593,16 @@
         <v>1130939</v>
       </c>
       <c r="E12" t="n">
-        <v>6.99</v>
+        <v>6.9761904761905</v>
       </c>
       <c r="F12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H12" t="n">
-        <v>1614</v>
+        <v>1657</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4614,7 +4614,7 @@
         <v>4.7003</v>
       </c>
       <c r="L12" t="n">
-        <v>403.5</v>
+        <v>414.25</v>
       </c>
       <c r="M12" t="n">
         <v>33</v>
@@ -4659,34 +4659,34 @@
         <v>2</v>
       </c>
       <c r="AA12" t="n">
-        <v>3.4213436</v>
+        <v>3.4522541</v>
       </c>
       <c r="AB12" t="n">
-        <v>1058</v>
+        <v>1089</v>
       </c>
       <c r="AC12" t="n">
         <v>7</v>
       </c>
       <c r="AD12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AE12" t="n">
-        <v>617</v>
+        <v>643</v>
       </c>
       <c r="AF12" t="n">
-        <v>84.289617486339</v>
+        <v>84.716732542819</v>
       </c>
       <c r="AG12" t="n">
-        <v>732</v>
+        <v>759</v>
       </c>
       <c r="AH12" t="n">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="AI12" t="n">
-        <v>442</v>
+        <v>460</v>
       </c>
       <c r="AJ12" t="n">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="AK12" t="n">
         <v>31</v>
@@ -4704,16 +4704,16 @@
         <v>13</v>
       </c>
       <c r="AP12" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AQ12" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AR12" t="n">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="AS12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AT12" t="n">
         <v>11</v>
@@ -4737,31 +4737,31 @@
         <v>38.461538461538</v>
       </c>
       <c r="BA12" t="n">
+        <v>73</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>42.690058479532</v>
+      </c>
+      <c r="BC12" t="n">
         <v>71</v>
       </c>
-      <c r="BB12" t="n">
-        <v>42.771084337349</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>69</v>
-      </c>
       <c r="BD12" t="n">
-        <v>45.394736842105</v>
+        <v>45.806451612903</v>
       </c>
       <c r="BE12" t="n">
         <v>2</v>
       </c>
       <c r="BF12" t="n">
-        <v>14.285714285714</v>
+        <v>12.5</v>
       </c>
       <c r="BG12" t="n">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="BH12" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BI12" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BJ12" t="n">
         <v>6</v>
@@ -4785,16 +4785,16 @@
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>139.8</v>
+        <v>146.5</v>
       </c>
       <c r="BR12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS12" t="n">
         <v>6</v>
       </c>
       <c r="BT12" t="n">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4821,10 +4821,10 @@
         <v>27</v>
       </c>
       <c r="CC12" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="CD12" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CE12" t="n">
         <v>0</v>
@@ -4866,7 +4866,7 @@
         <v>0</v>
       </c>
       <c r="CR12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CS12" t="n">
         <v>39</v>
@@ -4875,10 +4875,10 @@
         <v>25</v>
       </c>
       <c r="CU12" t="n">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="CV12" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CW12" t="n">
         <v>0</v>
@@ -4893,10 +4893,10 @@
         <v>40</v>
       </c>
       <c r="DA12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="DB12" t="n">
-        <v>56.666666666667</v>
+        <v>58.064516129032</v>
       </c>
       <c r="DC12" t="n">
         <v>0</v>
@@ -4908,10 +4908,10 @@
         <v>0</v>
       </c>
       <c r="DF12" t="n">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="DG12" t="n">
-        <v>539</v>
+        <v>558</v>
       </c>
       <c r="DH12" t="n">
         <v>0</v>
@@ -4949,40 +4949,40 @@
         <v>770677</v>
       </c>
       <c r="E13" t="n">
-        <v>6.8727272727273</v>
+        <v>6.9</v>
       </c>
       <c r="F13" t="n">
+        <v>12</v>
+      </c>
+      <c r="G13" t="n">
         <v>11</v>
       </c>
-      <c r="G13" t="n">
-        <v>10</v>
-      </c>
       <c r="H13" t="n">
-        <v>878</v>
+        <v>954</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>0.433</v>
+        <v>0.61</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>954</v>
       </c>
       <c r="M13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O13" t="n">
         <v>1</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -4994,7 +4994,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -5006,7 +5006,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="n">
         <v>1</v>
@@ -5015,10 +5015,10 @@
         <v>1</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.62069947</v>
+        <v>0.63546707</v>
       </c>
       <c r="AB13" t="n">
-        <v>578</v>
+        <v>620</v>
       </c>
       <c r="AC13" t="n">
         <v>1</v>
@@ -5027,22 +5027,22 @@
         <v>4</v>
       </c>
       <c r="AE13" t="n">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="AF13" t="n">
-        <v>94.235033259424</v>
+        <v>93.56846473029</v>
       </c>
       <c r="AG13" t="n">
-        <v>451</v>
+        <v>482</v>
       </c>
       <c r="AH13" t="n">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="AI13" t="n">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="AJ13" t="n">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="AK13" t="n">
         <v>14</v>
@@ -5060,16 +5060,16 @@
         <v>17</v>
       </c>
       <c r="AP13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AQ13" t="n">
         <v>1</v>
       </c>
       <c r="AR13" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="AS13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT13" t="n">
         <v>26</v>
@@ -5078,7 +5078,7 @@
         <v>2</v>
       </c>
       <c r="AV13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW13" t="n">
         <v>0</v>
@@ -5093,25 +5093,25 @@
         <v>50</v>
       </c>
       <c r="BA13" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="BB13" t="n">
-        <v>50</v>
+        <v>47.692307692308</v>
       </c>
       <c r="BC13" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD13" t="n">
-        <v>46.808510638298</v>
+        <v>45.098039215686</v>
       </c>
       <c r="BE13" t="n">
         <v>8</v>
       </c>
       <c r="BF13" t="n">
-        <v>61.538461538462</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BG13" t="n">
-        <v>54</v>
+        <v>64</v>
       </c>
       <c r="BH13" t="n">
         <v>12</v>
@@ -5135,22 +5135,22 @@
         <v>2</v>
       </c>
       <c r="BO13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>75.59999999999999</v>
+        <v>82.8</v>
       </c>
       <c r="BR13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BS13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT13" t="n">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="BU13" t="n">
         <v>1</v>
@@ -5168,16 +5168,16 @@
         <v>0</v>
       </c>
       <c r="BZ13" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CA13" t="n">
         <v>1</v>
       </c>
       <c r="CB13" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CC13" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CD13" t="n">
         <v>6</v>
@@ -5198,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CK13" t="n">
         <v>0</v>
@@ -5231,10 +5231,10 @@
         <v>7</v>
       </c>
       <c r="CU13" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="CV13" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CW13" t="n">
         <v>0</v>
@@ -5252,7 +5252,7 @@
         <v>11</v>
       </c>
       <c r="DB13" t="n">
-        <v>73.333333333333</v>
+        <v>68.75</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -5264,16 +5264,16 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>215</v>
+        <v>228</v>
       </c>
       <c r="DG13" t="n">
-        <v>236</v>
+        <v>254</v>
       </c>
       <c r="DH13" t="n">
         <v>3</v>
       </c>
       <c r="DI13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="DJ13" t="n">
         <v>2139465</v>
@@ -5305,16 +5305,16 @@
         <v>1410148</v>
       </c>
       <c r="E14" t="n">
-        <v>7.0333333333333</v>
+        <v>6.9461538461538</v>
       </c>
       <c r="F14" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G14" t="n">
         <v>11</v>
       </c>
       <c r="H14" t="n">
-        <v>843</v>
+        <v>890</v>
       </c>
       <c r="I14" t="n">
         <v>1</v>
@@ -5326,7 +5326,7 @@
         <v>1.2927</v>
       </c>
       <c r="L14" t="n">
-        <v>281</v>
+        <v>296.66666666667</v>
       </c>
       <c r="M14" t="n">
         <v>6</v>
@@ -5371,10 +5371,10 @@
         <v>1</v>
       </c>
       <c r="AA14" t="n">
-        <v>1.27894235</v>
+        <v>1.2806967</v>
       </c>
       <c r="AB14" t="n">
-        <v>616</v>
+        <v>644</v>
       </c>
       <c r="AC14" t="n">
         <v>1</v>
@@ -5383,52 +5383,52 @@
         <v>8</v>
       </c>
       <c r="AE14" t="n">
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="AF14" t="n">
-        <v>86.95652173913</v>
+        <v>86.638830897704</v>
       </c>
       <c r="AG14" t="n">
-        <v>460</v>
+        <v>479</v>
       </c>
       <c r="AH14" t="n">
-        <v>205</v>
+        <v>214</v>
       </c>
       <c r="AI14" t="n">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="AJ14" t="n">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AK14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL14" t="n">
-        <v>66.666666666667</v>
+        <v>65.789473684211</v>
       </c>
       <c r="AM14" t="n">
         <v>1</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>16.666666666667</v>
       </c>
       <c r="AO14" t="n">
         <v>13</v>
       </c>
       <c r="AP14" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AQ14" t="n">
         <v>5</v>
       </c>
       <c r="AR14" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="AS14" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AT14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU14" t="n">
         <v>1</v>
@@ -5446,31 +5446,31 @@
         <v>10</v>
       </c>
       <c r="AZ14" t="n">
-        <v>52.631578947368</v>
+        <v>47.619047619048</v>
       </c>
       <c r="BA14" t="n">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="BB14" t="n">
-        <v>51.456310679612</v>
+        <v>48.214285714286</v>
       </c>
       <c r="BC14" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="BD14" t="n">
-        <v>52.873563218391</v>
+        <v>50</v>
       </c>
       <c r="BE14" t="n">
         <v>7</v>
       </c>
       <c r="BF14" t="n">
-        <v>43.75</v>
+        <v>38.888888888889</v>
       </c>
       <c r="BG14" t="n">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="BH14" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BI14" t="n">
         <v>10</v>
@@ -5479,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="BK14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BL14" t="n">
         <v>1</v>
@@ -5491,22 +5491,22 @@
         <v>1</v>
       </c>
       <c r="BO14" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BP14" t="n">
         <v>0</v>
       </c>
       <c r="BQ14" t="n">
-        <v>84.40000000000001</v>
+        <v>90.3</v>
       </c>
       <c r="BR14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS14" t="n">
         <v>4</v>
       </c>
       <c r="BT14" t="n">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="BU14" t="n">
         <v>1</v>
@@ -5530,10 +5530,10 @@
         <v>2</v>
       </c>
       <c r="CB14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CC14" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="CD14" t="n">
         <v>16</v>
@@ -5554,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CK14" t="n">
         <v>1</v>
@@ -5581,16 +5581,16 @@
         <v>8</v>
       </c>
       <c r="CS14" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="CT14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CU14" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="CV14" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="CW14" t="n">
         <v>0</v>
@@ -5602,13 +5602,13 @@
         <v>0</v>
       </c>
       <c r="CZ14" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="DA14" t="n">
         <v>14</v>
       </c>
       <c r="DB14" t="n">
-        <v>53.846153846154</v>
+        <v>51.851851851852</v>
       </c>
       <c r="DC14" t="n">
         <v>0</v>
@@ -5620,10 +5620,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="DG14" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -6371,16 +6371,16 @@
         <v>1090694</v>
       </c>
       <c r="E17" t="n">
-        <v>6.7416666666667</v>
+        <v>6.7615384615385</v>
       </c>
       <c r="F17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H17" t="n">
-        <v>522</v>
+        <v>598</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -6437,64 +6437,64 @@
         <v>2</v>
       </c>
       <c r="AA17" t="n">
-        <v>1.48164786</v>
+        <v>1.50835386</v>
       </c>
       <c r="AB17" t="n">
-        <v>505</v>
+        <v>582</v>
       </c>
       <c r="AC17" t="n">
         <v>3</v>
       </c>
       <c r="AD17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE17" t="n">
-        <v>248</v>
+        <v>286</v>
       </c>
       <c r="AF17" t="n">
-        <v>80.51948051948099</v>
+        <v>79.66573816156</v>
       </c>
       <c r="AG17" t="n">
-        <v>308</v>
+        <v>359</v>
       </c>
       <c r="AH17" t="n">
-        <v>88</v>
+        <v>105</v>
       </c>
       <c r="AI17" t="n">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="AJ17" t="n">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="AK17" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL17" t="n">
-        <v>47.727272727273</v>
+        <v>44.230769230769</v>
       </c>
       <c r="AM17" t="n">
         <v>8</v>
       </c>
       <c r="AN17" t="n">
-        <v>26.666666666667</v>
+        <v>25</v>
       </c>
       <c r="AO17" t="n">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="AP17" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="AQ17" t="n">
         <v>1</v>
       </c>
       <c r="AR17" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AS17" t="n">
         <v>5</v>
       </c>
       <c r="AT17" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -6515,28 +6515,28 @@
         <v>43.75</v>
       </c>
       <c r="BA17" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="BB17" t="n">
-        <v>52.173913043478</v>
+        <v>55.128205128205</v>
       </c>
       <c r="BC17" t="n">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="BD17" t="n">
-        <v>47.457627118644</v>
+        <v>50</v>
       </c>
       <c r="BE17" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BF17" t="n">
-        <v>80</v>
+        <v>83.333333333333</v>
       </c>
       <c r="BG17" t="n">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="BH17" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BI17" t="n">
         <v>2</v>
@@ -6557,22 +6557,22 @@
         <v>0</v>
       </c>
       <c r="BO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BP17" t="n">
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>80.90000000000001</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="BR17" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS17" t="n">
         <v>2</v>
       </c>
       <c r="BT17" t="n">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="BU17" t="n">
         <v>0</v>
@@ -6599,10 +6599,10 @@
         <v>5</v>
       </c>
       <c r="CC17" t="n">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="CD17" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
@@ -6620,7 +6620,7 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CK17" t="n">
         <v>0</v>
@@ -6644,16 +6644,16 @@
         <v>0</v>
       </c>
       <c r="CR17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CS17" t="n">
         <v>16</v>
       </c>
       <c r="CT17" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="CU17" t="n">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="CV17" t="n">
         <v>2</v>
@@ -6668,13 +6668,13 @@
         <v>0</v>
       </c>
       <c r="CZ17" t="n">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="DA17" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="DB17" t="n">
-        <v>63.157894736842</v>
+        <v>58.333333333333</v>
       </c>
       <c r="DC17" t="n">
         <v>0</v>
@@ -6686,10 +6686,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="DG17" t="n">
-        <v>203</v>
+        <v>234</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
@@ -7439,16 +7439,16 @@
         <v>845170</v>
       </c>
       <c r="E20" t="n">
-        <v>6.6294117647059</v>
+        <v>6.65</v>
       </c>
       <c r="F20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G20" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="n">
-        <v>1248</v>
+        <v>1338</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -7505,64 +7505,64 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>2.03727245</v>
+        <v>2.44936645</v>
       </c>
       <c r="AB20" t="n">
-        <v>994</v>
+        <v>1060</v>
       </c>
       <c r="AC20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AD20" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
-        <v>525</v>
+        <v>566</v>
       </c>
       <c r="AF20" t="n">
-        <v>80.03048780487801</v>
+        <v>80.626780626781</v>
       </c>
       <c r="AG20" t="n">
-        <v>656</v>
+        <v>702</v>
       </c>
       <c r="AH20" t="n">
-        <v>204</v>
+        <v>216</v>
       </c>
       <c r="AI20" t="n">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="AJ20" t="n">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="AK20" t="n">
         <v>23</v>
       </c>
       <c r="AL20" t="n">
-        <v>35.384615384615</v>
+        <v>34.328358208955</v>
       </c>
       <c r="AM20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AN20" t="n">
-        <v>20.731707317073</v>
+        <v>21.428571428571</v>
       </c>
       <c r="AO20" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AP20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR20" t="n">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="AS20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AT20" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AU20" t="n">
         <v>2</v>
@@ -7580,31 +7580,31 @@
         <v>6</v>
       </c>
       <c r="AZ20" t="n">
-        <v>50</v>
+        <v>46.153846153846</v>
       </c>
       <c r="BA20" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BB20" t="n">
-        <v>51.724137931034</v>
+        <v>49.462365591398</v>
       </c>
       <c r="BC20" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BD20" t="n">
-        <v>55.072463768116</v>
+        <v>52.702702702703</v>
       </c>
       <c r="BE20" t="n">
         <v>7</v>
       </c>
       <c r="BF20" t="n">
-        <v>38.888888888889</v>
+        <v>36.842105263158</v>
       </c>
       <c r="BG20" t="n">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="BH20" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BI20" t="n">
         <v>15</v>
@@ -7625,22 +7625,22 @@
         <v>2</v>
       </c>
       <c r="BO20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BP20" t="n">
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>112.7</v>
+        <v>119.7</v>
       </c>
       <c r="BR20" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS20" t="n">
         <v>0</v>
       </c>
       <c r="BT20" t="n">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
@@ -7664,13 +7664,13 @@
         <v>2</v>
       </c>
       <c r="CB20" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="CC20" t="n">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="CD20" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="CE20" t="n">
         <v>0</v>
@@ -7688,7 +7688,7 @@
         <v>0</v>
       </c>
       <c r="CJ20" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CK20" t="n">
         <v>2</v>
@@ -7712,20 +7712,20 @@
         <v>0</v>
       </c>
       <c r="CR20" t="n">
+        <v>16</v>
+      </c>
+      <c r="CS20" t="n">
         <v>13</v>
       </c>
-      <c r="CS20" t="n">
+      <c r="CT20" t="n">
+        <v>84</v>
+      </c>
+      <c r="CU20" t="n">
+        <v>47</v>
+      </c>
+      <c r="CV20" t="n">
         <v>12</v>
       </c>
-      <c r="CT20" t="n">
-        <v>82</v>
-      </c>
-      <c r="CU20" t="n">
-        <v>42</v>
-      </c>
-      <c r="CV20" t="n">
-        <v>11</v>
-      </c>
       <c r="CW20" t="n">
         <v>0</v>
       </c>
@@ -7736,13 +7736,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="DA20" t="n">
         <v>7</v>
       </c>
       <c r="DB20" t="n">
-        <v>36.842105263158</v>
+        <v>35</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7754,10 +7754,10 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="DG20" t="n">
-        <v>421</v>
+        <v>452</v>
       </c>
       <c r="DH20" t="n">
         <v>0</v>
@@ -7795,16 +7795,16 @@
         <v>281277</v>
       </c>
       <c r="E21" t="n">
-        <v>6.8</v>
+        <v>6.83125</v>
       </c>
       <c r="F21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H21" t="n">
-        <v>1288</v>
+        <v>1378</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -7813,13 +7813,13 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>1.4498</v>
+        <v>1.518</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="N21" t="n">
         <v>1</v>
@@ -7861,10 +7861,10 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.23327372</v>
+        <v>0.2368767</v>
       </c>
       <c r="AB21" t="n">
-        <v>1106</v>
+        <v>1158</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -7873,28 +7873,28 @@
         <v>4</v>
       </c>
       <c r="AE21" t="n">
-        <v>785</v>
+        <v>815</v>
       </c>
       <c r="AF21" t="n">
-        <v>86.932447397564</v>
+        <v>86.609989373007</v>
       </c>
       <c r="AG21" t="n">
-        <v>903</v>
+        <v>941</v>
       </c>
       <c r="AH21" t="n">
-        <v>451</v>
+        <v>472</v>
       </c>
       <c r="AI21" t="n">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="AJ21" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="AK21" t="n">
         <v>42</v>
       </c>
       <c r="AL21" t="n">
-        <v>51.219512195122</v>
+        <v>49.411764705882</v>
       </c>
       <c r="AM21" t="n">
         <v>0</v>
@@ -7903,10 +7903,10 @@
         <v>0</v>
       </c>
       <c r="AO21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP21" t="n">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="AQ21" t="n">
         <v>0</v>
@@ -7918,7 +7918,7 @@
         <v>12</v>
       </c>
       <c r="AT21" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="AU21" t="n">
         <v>3</v>
@@ -7939,25 +7939,25 @@
         <v>66.666666666667</v>
       </c>
       <c r="BA21" t="n">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="BB21" t="n">
-        <v>61.428571428571</v>
+        <v>62.837837837838</v>
       </c>
       <c r="BC21" t="n">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="BD21" t="n">
-        <v>61.728395061728</v>
+        <v>63.529411764706</v>
       </c>
       <c r="BE21" t="n">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="BF21" t="n">
-        <v>61.016949152542</v>
+        <v>61.904761904762</v>
       </c>
       <c r="BG21" t="n">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="BH21" t="n">
         <v>18</v>
@@ -7981,28 +7981,28 @@
         <v>4</v>
       </c>
       <c r="BO21" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BP21" t="n">
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>102</v>
+        <v>109.3</v>
       </c>
       <c r="BR21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS21" t="n">
         <v>0</v>
       </c>
       <c r="BT21" t="n">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="BU21" t="n">
         <v>1</v>
       </c>
       <c r="BV21" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BW21" t="n">
         <v>0</v>
@@ -8014,7 +8014,7 @@
         <v>0</v>
       </c>
       <c r="BZ21" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CA21" t="n">
         <v>0</v>
@@ -8023,7 +8023,7 @@
         <v>1</v>
       </c>
       <c r="CC21" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="CD21" t="n">
         <v>31</v>
@@ -8044,7 +8044,7 @@
         <v>0</v>
       </c>
       <c r="CJ21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CK21" t="n">
         <v>1</v>
@@ -8077,10 +8077,10 @@
         <v>1</v>
       </c>
       <c r="CU21" t="n">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="CV21" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8092,13 +8092,13 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="DA21" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="DB21" t="n">
-        <v>51.724137931034</v>
+        <v>48.484848484848</v>
       </c>
       <c r="DC21" t="n">
         <v>1</v>
@@ -8110,16 +8110,16 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>484</v>
+        <v>509</v>
       </c>
       <c r="DG21" t="n">
-        <v>419</v>
+        <v>432</v>
       </c>
       <c r="DH21" t="n">
         <v>4</v>
       </c>
       <c r="DI21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="DJ21" t="n">
         <v>2263484</v>
@@ -8151,16 +8151,16 @@
         <v>361696</v>
       </c>
       <c r="E22" t="n">
-        <v>6.75</v>
+        <v>6.9</v>
       </c>
       <c r="F22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H22" t="n">
-        <v>119</v>
+        <v>209</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -8169,19 +8169,19 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0451</v>
+        <v>0.3063</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -8217,10 +8217,10 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.0412765</v>
+        <v>0.04443653</v>
       </c>
       <c r="AB22" t="n">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -8229,28 +8229,28 @@
         <v>0</v>
       </c>
       <c r="AE22" t="n">
-        <v>121</v>
+        <v>153</v>
       </c>
       <c r="AF22" t="n">
-        <v>95.275590551181</v>
+        <v>95.031055900621</v>
       </c>
       <c r="AG22" t="n">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="AH22" t="n">
-        <v>55</v>
+        <v>77</v>
       </c>
       <c r="AI22" t="n">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="AJ22" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AK22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AL22" t="n">
-        <v>0</v>
+        <v>28.571428571429</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
@@ -8259,223 +8259,223 @@
         <v>0</v>
       </c>
       <c r="AO22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AP22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AQ22" t="n">
         <v>0</v>
       </c>
       <c r="AR22" t="n">
+        <v>5</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>14</v>
+      </c>
+      <c r="AU22" t="n">
+        <v>1</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>64.705882352941</v>
+      </c>
+      <c r="BC22" t="n">
         <v>4</v>
-      </c>
-      <c r="AS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT22" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU22" t="n">
-        <v>1</v>
-      </c>
-      <c r="AV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>7</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>63.636363636364</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>2</v>
       </c>
       <c r="BD22" t="n">
         <v>66.666666666667</v>
       </c>
       <c r="BE22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BF22" t="n">
-        <v>62.5</v>
+        <v>63.636363636364</v>
       </c>
       <c r="BG22" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ22" t="n">
+        <v>20.7</v>
+      </c>
+      <c r="BR22" t="n">
+        <v>3</v>
+      </c>
+      <c r="BS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BT22" t="n">
+        <v>8</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ22" t="n">
+        <v>2</v>
+      </c>
+      <c r="CA22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CC22" t="n">
+        <v>4</v>
+      </c>
+      <c r="CD22" t="n">
+        <v>1</v>
+      </c>
+      <c r="CE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ22" t="n">
+        <v>4</v>
+      </c>
+      <c r="CK22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CL22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CS22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CT22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU22" t="n">
+        <v>6</v>
+      </c>
+      <c r="CV22" t="n">
+        <v>4</v>
+      </c>
+      <c r="CW22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY22" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ22" t="n">
         <v>7</v>
       </c>
-      <c r="BH22" t="n">
-        <v>2</v>
-      </c>
-      <c r="BI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BO22" t="n">
+      <c r="DA22" t="n">
         <v>3</v>
       </c>
-      <c r="BP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ22" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="BR22" t="n">
-        <v>2</v>
-      </c>
-      <c r="BS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BT22" t="n">
-        <v>6</v>
-      </c>
-      <c r="BU22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ22" t="n">
-        <v>1</v>
-      </c>
-      <c r="CA22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CB22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CC22" t="n">
+      <c r="DB22" t="n">
+        <v>75</v>
+      </c>
+      <c r="DC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE22" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF22" t="n">
+        <v>80</v>
+      </c>
+      <c r="DG22" t="n">
+        <v>81</v>
+      </c>
+      <c r="DH22" t="n">
+        <v>9</v>
+      </c>
+      <c r="DI22" t="n">
         <v>3</v>
-      </c>
-      <c r="CD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ22" t="n">
-        <v>3</v>
-      </c>
-      <c r="CK22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CL22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CS22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CT22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CU22" t="n">
-        <v>4</v>
-      </c>
-      <c r="CV22" t="n">
-        <v>3</v>
-      </c>
-      <c r="CW22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY22" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ22" t="n">
-        <v>3</v>
-      </c>
-      <c r="DA22" t="n">
-        <v>1</v>
-      </c>
-      <c r="DB22" t="n">
-        <v>50</v>
-      </c>
-      <c r="DC22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE22" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF22" t="n">
-        <v>57</v>
-      </c>
-      <c r="DG22" t="n">
-        <v>70</v>
-      </c>
-      <c r="DH22" t="n">
-        <v>8</v>
-      </c>
-      <c r="DI22" t="n">
-        <v>1</v>
       </c>
       <c r="DJ22" t="n">
         <v>2594660</v>
@@ -8507,16 +8507,16 @@
         <v>825846</v>
       </c>
       <c r="E23" t="n">
-        <v>6.895</v>
+        <v>6.8857142857143</v>
       </c>
       <c r="F23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G23" t="n">
         <v>17</v>
       </c>
       <c r="H23" t="n">
-        <v>1513</v>
+        <v>1527</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -8573,10 +8573,10 @@
         <v>0</v>
       </c>
       <c r="AA23" t="n">
-        <v>2.30609763</v>
+        <v>2.30762763</v>
       </c>
       <c r="AB23" t="n">
-        <v>1157</v>
+        <v>1170</v>
       </c>
       <c r="AC23" t="n">
         <v>2</v>
@@ -8585,28 +8585,28 @@
         <v>18</v>
       </c>
       <c r="AE23" t="n">
-        <v>723</v>
+        <v>729</v>
       </c>
       <c r="AF23" t="n">
-        <v>84.66042154566701</v>
+        <v>84.57076566125301</v>
       </c>
       <c r="AG23" t="n">
-        <v>854</v>
+        <v>862</v>
       </c>
       <c r="AH23" t="n">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AI23" t="n">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AJ23" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AK23" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AL23" t="n">
-        <v>46.875</v>
+        <v>47.422680412371</v>
       </c>
       <c r="AM23" t="n">
         <v>9</v>
@@ -8624,13 +8624,13 @@
         <v>6</v>
       </c>
       <c r="AR23" t="n">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AS23" t="n">
         <v>16</v>
       </c>
       <c r="AT23" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="AU23" t="n">
         <v>2</v>
@@ -8654,25 +8654,25 @@
         <v>76</v>
       </c>
       <c r="BB23" t="n">
-        <v>52.054794520548</v>
+        <v>51.351351351351</v>
       </c>
       <c r="BC23" t="n">
         <v>59</v>
       </c>
       <c r="BD23" t="n">
-        <v>50.42735042735</v>
+        <v>50</v>
       </c>
       <c r="BE23" t="n">
         <v>17</v>
       </c>
       <c r="BF23" t="n">
-        <v>58.620689655172</v>
+        <v>56.666666666667</v>
       </c>
       <c r="BG23" t="n">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="BH23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="BI23" t="n">
         <v>20</v>
@@ -8681,7 +8681,7 @@
         <v>1</v>
       </c>
       <c r="BK23" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BL23" t="n">
         <v>0</v>
@@ -8699,16 +8699,16 @@
         <v>0</v>
       </c>
       <c r="BQ23" t="n">
-        <v>137.9</v>
+        <v>144.6</v>
       </c>
       <c r="BR23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS23" t="n">
         <v>0</v>
       </c>
       <c r="BT23" t="n">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="BU23" t="n">
         <v>0</v>
@@ -8789,10 +8789,10 @@
         <v>38</v>
       </c>
       <c r="CU23" t="n">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="CV23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CW23" t="n">
         <v>0</v>
@@ -8804,7 +8804,7 @@
         <v>0</v>
       </c>
       <c r="CZ23" t="n">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="DA23" t="n">
         <v>33</v>
@@ -8822,10 +8822,10 @@
         <v>0</v>
       </c>
       <c r="DF23" t="n">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="DG23" t="n">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="DH23" t="n">
         <v>0</v>
@@ -9929,16 +9929,16 @@
         <v>868964</v>
       </c>
       <c r="E27" t="n">
-        <v>6.8933333333333</v>
+        <v>6.8625</v>
       </c>
       <c r="F27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="n">
-        <v>1259</v>
+        <v>1349</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -9993,10 +9993,10 @@
         <v>0</v>
       </c>
       <c r="AA27" t="n">
-        <v>0.00528913</v>
+        <v>0.00552741</v>
       </c>
       <c r="AB27" t="n">
-        <v>488</v>
+        <v>517</v>
       </c>
       <c r="AC27" t="n">
         <v>0</v>
@@ -10005,28 +10005,28 @@
         <v>0</v>
       </c>
       <c r="AE27" t="n">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="AF27" t="n">
-        <v>79.60893854748601</v>
+        <v>77.42782152231</v>
       </c>
       <c r="AG27" t="n">
-        <v>358</v>
+        <v>381</v>
       </c>
       <c r="AH27" t="n">
-        <v>264</v>
+        <v>271</v>
       </c>
       <c r="AI27" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AJ27" t="n">
         <v>3</v>
       </c>
       <c r="AK27" t="n">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="AL27" t="n">
-        <v>46.456692913386</v>
+        <v>44.520547945205</v>
       </c>
       <c r="AM27" t="n">
         <v>0</v>
@@ -10044,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="AR27" t="n">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="AS27" t="n">
         <v>0</v>
@@ -10071,10 +10071,10 @@
         <v>0</v>
       </c>
       <c r="BA27" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BB27" t="n">
-        <v>87.5</v>
+        <v>88.888888888889</v>
       </c>
       <c r="BC27" t="n">
         <v>2</v>
@@ -10083,13 +10083,13 @@
         <v>66.666666666667</v>
       </c>
       <c r="BE27" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BF27" t="n">
         <v>100</v>
       </c>
       <c r="BG27" t="n">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="BH27" t="n">
         <v>0</v>
@@ -10107,28 +10107,28 @@
         <v>0</v>
       </c>
       <c r="BM27" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="BN27" t="n">
         <v>4</v>
       </c>
       <c r="BO27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BP27" t="n">
         <v>0</v>
       </c>
       <c r="BQ27" t="n">
-        <v>103.4</v>
+        <v>109.8</v>
       </c>
       <c r="BR27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BS27" t="n">
         <v>0</v>
       </c>
       <c r="BT27" t="n">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="BU27" t="n">
         <v>0</v>
@@ -10155,10 +10155,10 @@
         <v>1</v>
       </c>
       <c r="CC27" t="n">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="CD27" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="CE27" t="n">
         <v>0</v>
@@ -10173,10 +10173,10 @@
         <v>21</v>
       </c>
       <c r="CI27" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CJ27" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CK27" t="n">
         <v>2</v>
@@ -10224,7 +10224,7 @@
         <v>0</v>
       </c>
       <c r="CZ27" t="n">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="DA27" t="n">
         <v>0</v>
@@ -10242,13 +10242,13 @@
         <v>3</v>
       </c>
       <c r="DF27" t="n">
-        <v>291</v>
+        <v>300</v>
       </c>
       <c r="DG27" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="DH27" t="n">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="DI27" t="n">
         <v>0</v>
@@ -10262,7 +10262,7 @@
         </is>
       </c>
       <c r="DL27" t="n">
-        <v>-1.711</v>
+        <v>-2.0279</v>
       </c>
     </row>
   </sheetData>

--- a/sofaplayer/Ligue_1/AS Monaco_stats.xlsx
+++ b/sofaplayer/Ligue_1/AS Monaco_stats.xlsx
@@ -2825,7 +2825,7 @@
         <v>165</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
         <v>2</v>
